--- a/data/trans_camb/P31_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +526,18 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>7,76</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,1</t>
+          <t>-2,86; 5,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,94</t>
+          <t>-2,72; 7,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,16</t>
+          <t>-7,23; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 13,77</t>
+          <t>0,52; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,95</t>
+          <t>-3,82; 5,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 11,18</t>
+          <t>2,99; 11,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,76</t>
+          <t>-1,39; 7,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,69</t>
+          <t>-6,05; 3,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,4</t>
+          <t>2,74; 12,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 4,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 7,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 6,13</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 1,59</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 9,68</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 3,89</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>-5,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>36,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-9,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>35,7%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 45,18</t>
+          <t>-14,42; 43,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 56,09</t>
+          <t>-15,5; 54,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 46,27</t>
+          <t>-39,76; 13,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,16; 71,75</t>
+          <t>2,05; 78,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 35,77</t>
+          <t>-19,32; 31,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 58,22</t>
+          <t>11,87; 57,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 50,08</t>
+          <t>-5,82; 35,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 31,75</t>
+          <t>-24,42; 17,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 41,6</t>
+          <t>11,35; 69,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; 17,46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 44,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 34,44</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 9,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 62,1</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-10,4; 17,88</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,72</t>
+          <t>-4,77; 8,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 6,83</t>
+          <t>-6,14; 8,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 7,11</t>
+          <t>-12,48; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,08</t>
+          <t>-0,41; 13,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 8,48</t>
+          <t>-6,84; 7,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 15,21</t>
+          <t>1,47; 12,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 9,73</t>
+          <t>-3,27; 8,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,64</t>
+          <t>-3,82; 8,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 8,1</t>
+          <t>-7,56; 8,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 5,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 8,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 5,65</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 2,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 8,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 3,97</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-27,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-13,4%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-7,58%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-7,52%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 50,8</t>
+          <t>-19,02; 53,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 40,07</t>
+          <t>-24,77; 51,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 42,47</t>
+          <t>-50,74; 2,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 60,35</t>
+          <t>-2,67; 104,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 35,9</t>
+          <t>-28,43; 44,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 60,73</t>
+          <t>4,37; 53,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 45,66</t>
+          <t>-10,76; 36,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 25,54</t>
+          <t>-12,78; 36,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 37,28</t>
+          <t>-24,29; 29,16</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 18,27</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 40,34</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-10,36; 25,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-24,74; 13,63</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 40,88</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-27,62; 16,74</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,39</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>11,58</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,62</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,66</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-5,37</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 15,52</t>
+          <t>-11,21; 18,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 3,14</t>
+          <t>-21,72; 4,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-18,38; 10,24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 25,84</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 15,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-0,26; 21,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 12,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; 3,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 17,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 6,37</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 15,86</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,39; 5,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 3,36</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,39%</t>
+          <t>-25,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-9,23%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>48,0%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>35,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-26,78%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>31,56%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-7,32%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,16%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-19,21%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 89,06</t>
+          <t>-35,48; 108,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 19,6</t>
+          <t>-62,06; 32,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-57,98; 62,74</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>13,93; 109,52</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 59,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-0,83; 79,8</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; 43,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-52,16; 11,76</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 75,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-32,22; 28,39</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 68,43</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-33,84; 20,8</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-45,15; 14,43</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,2</t>
+          <t>-1,97; 5,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,9</t>
+          <t>-3,93; 4,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,03</t>
+          <t>-7,61; -0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,42</t>
+          <t>0,67; 8,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 5,84</t>
+          <t>-2,99; 4,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,62</t>
+          <t>4,51; 11,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,07</t>
+          <t>-0,98; 5,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,72</t>
+          <t>-4,35; 2,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,86</t>
+          <t>0,72; 8,59</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 3,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 7,74</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 4,08</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 0,56</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 7,17</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 2,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-19,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-9,95%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 36,8</t>
+          <t>-9,03; 34,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 22,55</t>
+          <t>-18,19; 26,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 17,34</t>
+          <t>-36,13; 0,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,43; 53,84</t>
+          <t>3,59; 59,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 25,44</t>
+          <t>-14,78; 24,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 36,03</t>
+          <t>16,03; 47,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,51; 39,21</t>
+          <t>-3,46; 24,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 18,01</t>
+          <t>-16,2; 12,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 22,67</t>
+          <t>2,8; 36,53</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 13,29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 37,05</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 19,75</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-20,93; 2,61</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 38,71</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-10,64; 11,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
